--- a/CourseCardSystem/CourseCardsSystem.xlsx
+++ b/CourseCardSystem/CourseCardsSystem.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yanxin/Gamedev_Tools/CourseCardSystem/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D2AB32B-CD91-9643-BAE4-4F518F218BD6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBE5CDF2-4D2F-D847-83DD-5BEA2DB52C4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17420" xr2:uid="{9D17990C-67C1-074B-AB22-A671F8561E26}"/>
   </bookViews>
@@ -22,7 +22,7 @@
     <sheet name="Cards" sheetId="5" r:id="rId7"/>
     <sheet name="Review" sheetId="3" r:id="rId8"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,6 +34,7 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -2902,7 +2903,7 @@
   <dimension ref="A1:AH36"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="88" workbookViewId="0">
-      <selection activeCell="I22" sqref="I22"/>
+      <selection activeCell="J20" sqref="J20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/CourseCardSystem/CourseCardsSystem.xlsx
+++ b/CourseCardSystem/CourseCardsSystem.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yanxin/Gamedev_Tools/CourseCardSystem/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBE5CDF2-4D2F-D847-83DD-5BEA2DB52C4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E9778E5-81E4-EE41-82FB-0B0399122B4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17420" xr2:uid="{9D17990C-67C1-074B-AB22-A671F8561E26}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17360" xr2:uid="{9D17990C-67C1-074B-AB22-A671F8561E26}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -264,16 +264,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>83128</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>128731</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>819151</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>56572</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>23</xdr:col>
-      <xdr:colOff>121228</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>157317</xdr:rowOff>
+      <xdr:colOff>34637</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>85158</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -296,7 +296,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="12148128" y="2553276"/>
+          <a:off x="12061537" y="3491345"/>
           <a:ext cx="6619009" cy="4675631"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2903,7 +2903,7 @@
   <dimension ref="A1:AH36"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="88" workbookViewId="0">
-      <selection activeCell="J20" sqref="J20"/>
+      <selection activeCell="G30" sqref="G30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3039,11 +3039,20 @@
       <c r="Q2" t="s">
         <v>0</v>
       </c>
+      <c r="R2" t="s">
+        <v>44</v>
+      </c>
       <c r="U2" t="s">
         <v>1</v>
       </c>
+      <c r="V2" t="s">
+        <v>44</v>
+      </c>
       <c r="Y2" t="s">
         <v>2</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="3" spans="1:34" x14ac:dyDescent="0.2">
@@ -3086,8 +3095,8 @@
       <c r="Q3">
         <v>1</v>
       </c>
-      <c r="R3" t="s">
-        <v>44</v>
+      <c r="R3">
+        <v>26</v>
       </c>
       <c r="T3" t="s">
         <v>18</v>
@@ -3095,8 +3104,8 @@
       <c r="U3">
         <v>10</v>
       </c>
-      <c r="V3" t="s">
-        <v>44</v>
+      <c r="V3">
+        <v>9</v>
       </c>
       <c r="X3" t="s">
         <v>18</v>
@@ -3104,8 +3113,8 @@
       <c r="Y3">
         <v>20</v>
       </c>
-      <c r="Z3" t="s">
-        <v>44</v>
+      <c r="Z3">
+        <v>77</v>
       </c>
     </row>
     <row r="4" spans="1:34" x14ac:dyDescent="0.2">
@@ -3157,17 +3166,26 @@
       <c r="Q4">
         <v>2</v>
       </c>
+      <c r="R4">
+        <v>122</v>
+      </c>
       <c r="T4">
         <v>300</v>
       </c>
       <c r="U4">
         <v>11</v>
       </c>
+      <c r="V4">
+        <v>162</v>
+      </c>
       <c r="X4">
         <v>300</v>
       </c>
       <c r="Y4">
         <v>21</v>
+      </c>
+      <c r="Z4">
+        <v>193</v>
       </c>
     </row>
     <row r="5" spans="1:34" x14ac:dyDescent="0.2">
@@ -3215,17 +3233,26 @@
       <c r="Q5">
         <v>3</v>
       </c>
+      <c r="R5">
+        <v>210</v>
+      </c>
       <c r="T5">
         <v>200</v>
       </c>
       <c r="U5">
         <v>12</v>
       </c>
+      <c r="V5">
+        <v>681</v>
+      </c>
       <c r="X5">
         <v>200</v>
       </c>
       <c r="Y5">
         <v>22</v>
+      </c>
+      <c r="Z5">
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:34" x14ac:dyDescent="0.2">
@@ -3273,17 +3300,26 @@
       <c r="Q6">
         <v>4</v>
       </c>
+      <c r="R6">
+        <v>549</v>
+      </c>
       <c r="T6">
         <v>100</v>
       </c>
       <c r="U6">
         <v>13</v>
       </c>
+      <c r="V6">
+        <v>612</v>
+      </c>
       <c r="X6">
         <v>100</v>
       </c>
       <c r="Y6">
         <v>23</v>
+      </c>
+      <c r="Z6">
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:34" x14ac:dyDescent="0.2">
@@ -3333,17 +3369,26 @@
       <c r="Q7">
         <v>5</v>
       </c>
+      <c r="R7">
+        <v>383</v>
+      </c>
       <c r="T7">
         <v>50</v>
       </c>
       <c r="U7">
         <v>14</v>
       </c>
+      <c r="V7">
+        <v>863</v>
+      </c>
       <c r="X7">
         <v>50</v>
       </c>
       <c r="Y7">
         <v>24</v>
+      </c>
+      <c r="Z7">
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:34" x14ac:dyDescent="0.2">
@@ -3391,6 +3436,9 @@
       <c r="U8">
         <v>15</v>
       </c>
+      <c r="V8">
+        <v>1659</v>
+      </c>
     </row>
     <row r="9" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A9" s="3"/>
@@ -3437,6 +3485,9 @@
       <c r="U9">
         <v>16</v>
       </c>
+      <c r="V9">
+        <v>616</v>
+      </c>
     </row>
     <row r="10" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A10" s="3"/>
@@ -3601,9 +3652,6 @@
       <c r="N13">
         <v>10</v>
       </c>
-      <c r="P13" t="s">
-        <v>43</v>
-      </c>
     </row>
     <row r="14" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A14" s="3"/>
@@ -3729,7 +3777,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A17" s="3"/>
       <c r="B17" s="3"/>
       <c r="C17" t="s">
@@ -3768,8 +3816,11 @@
       <c r="N17">
         <v>70</v>
       </c>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="P17" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A18" s="3"/>
       <c r="B18" s="3"/>
       <c r="C18" t="s">
@@ -3809,7 +3860,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A19" s="3"/>
       <c r="B19" s="3" t="s">
         <v>8</v>
@@ -3851,7 +3902,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A20" s="3"/>
       <c r="B20" s="3"/>
       <c r="C20" t="s">
@@ -3891,7 +3942,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A21" s="3"/>
       <c r="B21" s="3"/>
       <c r="C21" t="s">
@@ -3931,7 +3982,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A22" s="3"/>
       <c r="B22" s="3" t="s">
         <v>9</v>
@@ -3973,7 +4024,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A23" s="3"/>
       <c r="B23" s="3"/>
       <c r="C23" t="s">
@@ -4013,7 +4064,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A24" s="3"/>
       <c r="B24" s="3"/>
       <c r="C24" t="s">
@@ -4053,7 +4104,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A25" s="3" t="s">
         <v>16</v>
       </c>
@@ -4097,7 +4148,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A26" s="3"/>
       <c r="B26" s="3"/>
       <c r="C26" t="s">
@@ -4137,7 +4188,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A27" s="3"/>
       <c r="B27" s="3"/>
       <c r="C27" t="s">
@@ -4177,7 +4228,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A28" s="3"/>
       <c r="B28" s="3" t="s">
         <v>11</v>
@@ -4219,7 +4270,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A29" s="3"/>
       <c r="B29" s="3"/>
       <c r="C29" t="s">
@@ -4259,7 +4310,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A30" s="3"/>
       <c r="B30" s="3"/>
       <c r="C30" t="s">
@@ -4299,7 +4350,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A31" s="3"/>
       <c r="B31" s="3" t="s">
         <v>12</v>
@@ -4341,7 +4392,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A32" s="3"/>
       <c r="B32" s="3"/>
       <c r="C32" t="s">
@@ -4547,12 +4598,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="A34:A36"/>
-    <mergeCell ref="A25:A33"/>
-    <mergeCell ref="D2:G2"/>
-    <mergeCell ref="H2:J2"/>
-    <mergeCell ref="B31:B33"/>
-    <mergeCell ref="B34:B36"/>
     <mergeCell ref="K2:M2"/>
     <mergeCell ref="A4:A15"/>
     <mergeCell ref="B22:B24"/>
@@ -4565,6 +4610,12 @@
     <mergeCell ref="B16:B18"/>
     <mergeCell ref="B19:B21"/>
     <mergeCell ref="A16:A24"/>
+    <mergeCell ref="A34:A36"/>
+    <mergeCell ref="A25:A33"/>
+    <mergeCell ref="D2:G2"/>
+    <mergeCell ref="H2:J2"/>
+    <mergeCell ref="B31:B33"/>
+    <mergeCell ref="B34:B36"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/CourseCardSystem/CourseCardsSystem.xlsx
+++ b/CourseCardSystem/CourseCardsSystem.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yanxin/Gamedev_Tools/CourseCardSystem/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E9778E5-81E4-EE41-82FB-0B0399122B4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2427A84-5F30-B447-BCFF-BB0D0A83082B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17360" xr2:uid="{9D17990C-67C1-074B-AB22-A671F8561E26}"/>
+    <workbookView xWindow="0" yWindow="780" windowWidth="30240" windowHeight="17360" xr2:uid="{9D17990C-67C1-074B-AB22-A671F8561E26}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -264,16 +264,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>819151</xdr:colOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>83128</xdr:colOff>
       <xdr:row>17</xdr:row>
-      <xdr:rowOff>56572</xdr:rowOff>
+      <xdr:rowOff>71004</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>23</xdr:col>
-      <xdr:colOff>34637</xdr:colOff>
+      <xdr:colOff>121228</xdr:colOff>
       <xdr:row>40</xdr:row>
-      <xdr:rowOff>85158</xdr:rowOff>
+      <xdr:rowOff>99590</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -296,7 +296,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="12061537" y="3491345"/>
+          <a:off x="12148128" y="3505777"/>
           <a:ext cx="6619009" cy="4675631"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2903,7 +2903,7 @@
   <dimension ref="A1:AH36"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="88" workbookViewId="0">
-      <selection activeCell="G30" sqref="G30"/>
+      <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3185,7 +3185,7 @@
         <v>21</v>
       </c>
       <c r="Z4">
-        <v>193</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:34" x14ac:dyDescent="0.2">
@@ -3246,13 +3246,13 @@
         <v>681</v>
       </c>
       <c r="X5">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="Y5">
         <v>22</v>
       </c>
       <c r="Z5">
-        <v>7</v>
+        <v>48</v>
       </c>
     </row>
     <row r="6" spans="1:34" x14ac:dyDescent="0.2">
@@ -3313,13 +3313,13 @@
         <v>612</v>
       </c>
       <c r="X6">
-        <v>100</v>
+        <v>280</v>
       </c>
       <c r="Y6">
         <v>23</v>
       </c>
       <c r="Z6">
-        <v>0</v>
+        <v>126</v>
       </c>
     </row>
     <row r="7" spans="1:34" x14ac:dyDescent="0.2">
@@ -3382,13 +3382,13 @@
         <v>863</v>
       </c>
       <c r="X7">
-        <v>50</v>
+        <v>220</v>
       </c>
       <c r="Y7">
         <v>24</v>
       </c>
       <c r="Z7">
-        <v>0</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:34" x14ac:dyDescent="0.2">
@@ -3439,6 +3439,15 @@
       <c r="V8">
         <v>1659</v>
       </c>
+      <c r="X8">
+        <v>200</v>
+      </c>
+      <c r="Y8">
+        <v>25</v>
+      </c>
+      <c r="Z8">
+        <v>7</v>
+      </c>
     </row>
     <row r="9" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A9" s="3"/>
@@ -4386,7 +4395,7 @@
         <v>80</v>
       </c>
       <c r="M31">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="N31">
         <v>20</v>
@@ -4426,7 +4435,7 @@
         <v>50</v>
       </c>
       <c r="M32">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="N32">
         <v>50</v>
@@ -4466,7 +4475,7 @@
         <v>0</v>
       </c>
       <c r="M33">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="N33">
         <v>50</v>

--- a/CourseCardSystem/CourseCardsSystem.xlsx
+++ b/CourseCardSystem/CourseCardsSystem.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yanxin/Gamedev_Tools/CourseCardSystem/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2427A84-5F30-B447-BCFF-BB0D0A83082B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B5F7107-9208-3846-A751-7114973589BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="780" windowWidth="30240" windowHeight="17360" xr2:uid="{9D17990C-67C1-074B-AB22-A671F8561E26}"/>
   </bookViews>
@@ -2903,7 +2903,7 @@
   <dimension ref="A1:AH36"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="88" workbookViewId="0">
-      <selection activeCell="I17" sqref="I17"/>
+      <selection activeCell="N26" sqref="N26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/CourseCardSystem/CourseCardsSystem.xlsx
+++ b/CourseCardSystem/CourseCardsSystem.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yanxin/Gamedev_Tools/CourseCardSystem/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B5F7107-9208-3846-A751-7114973589BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71901311-2B32-4144-9006-116FD8F10154}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="780" windowWidth="30240" windowHeight="17360" xr2:uid="{9D17990C-67C1-074B-AB22-A671F8561E26}"/>
   </bookViews>
@@ -265,15 +265,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>83128</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>71004</xdr:rowOff>
+      <xdr:colOff>255848</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>121804</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>23</xdr:col>
-      <xdr:colOff>121228</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>99590</xdr:rowOff>
+      <xdr:colOff>293948</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>150390</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -296,8 +296,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="12148128" y="3505777"/>
-          <a:ext cx="6619009" cy="4675631"/>
+          <a:off x="12325928" y="2966604"/>
+          <a:ext cx="6621780" cy="4702186"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2902,8 +2902,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4BE2B76B-281E-8E47-AF7A-D4E6247A3AFE}">
   <dimension ref="A1:AH36"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="88" workbookViewId="0">
-      <selection activeCell="N26" sqref="N26"/>
+    <sheetView tabSelected="1" zoomScale="115" workbookViewId="0">
+      <selection activeCell="AB12" sqref="AB12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3116,6 +3116,14 @@
       <c r="Z3">
         <v>77</v>
       </c>
+      <c r="AA3">
+        <f>Z3/Z$9</f>
+        <v>0.33624454148471616</v>
+      </c>
+      <c r="AB3">
+        <f>AA3*AA3</f>
+        <v>0.11306039167826701</v>
+      </c>
     </row>
     <row r="4" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
@@ -3185,6 +3193,14 @@
         <v>21</v>
       </c>
       <c r="Z4">
+        <v>0</v>
+      </c>
+      <c r="AA4">
+        <f t="shared" ref="AA4:AA8" si="0">Z4/Z$9</f>
+        <v>0</v>
+      </c>
+      <c r="AB4">
+        <f t="shared" ref="AB4:AB8" si="1">AA4*AA4</f>
         <v>0</v>
       </c>
     </row>
@@ -3246,13 +3262,21 @@
         <v>681</v>
       </c>
       <c r="X5">
-        <v>250</v>
+        <v>280</v>
       </c>
       <c r="Y5">
         <v>22</v>
       </c>
       <c r="Z5">
         <v>48</v>
+      </c>
+      <c r="AA5">
+        <f t="shared" si="0"/>
+        <v>0.20960698689956331</v>
+      </c>
+      <c r="AB5">
+        <f t="shared" si="1"/>
+        <v>4.3935088957113705E-2</v>
       </c>
     </row>
     <row r="6" spans="1:34" x14ac:dyDescent="0.2">
@@ -3313,13 +3337,21 @@
         <v>612</v>
       </c>
       <c r="X6">
-        <v>280</v>
+        <v>250</v>
       </c>
       <c r="Y6">
         <v>23</v>
       </c>
       <c r="Z6">
-        <v>126</v>
+        <v>78</v>
+      </c>
+      <c r="AA6">
+        <f t="shared" si="0"/>
+        <v>0.34061135371179041</v>
+      </c>
+      <c r="AB6">
+        <f t="shared" si="1"/>
+        <v>0.1160160942773784</v>
       </c>
     </row>
     <row r="7" spans="1:34" x14ac:dyDescent="0.2">
@@ -3389,6 +3421,14 @@
       </c>
       <c r="Z7">
         <v>19</v>
+      </c>
+      <c r="AA7">
+        <f t="shared" si="0"/>
+        <v>8.296943231441048E-2</v>
+      </c>
+      <c r="AB7">
+        <f t="shared" si="1"/>
+        <v>6.8839266985755423E-3</v>
       </c>
     </row>
     <row r="8" spans="1:34" x14ac:dyDescent="0.2">
@@ -3448,6 +3488,14 @@
       <c r="Z8">
         <v>7</v>
       </c>
+      <c r="AA8">
+        <f t="shared" si="0"/>
+        <v>3.0567685589519649E-2</v>
+      </c>
+      <c r="AB8">
+        <f t="shared" si="1"/>
+        <v>9.3438340229972717E-4</v>
+      </c>
     </row>
     <row r="9" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A9" s="3"/>
@@ -3497,6 +3545,14 @@
       <c r="V9">
         <v>616</v>
       </c>
+      <c r="Z9">
+        <f>SUM(Z3:Z8)</f>
+        <v>229</v>
+      </c>
+      <c r="AB9">
+        <f>SUM(AB3:AB8)</f>
+        <v>0.28082988501363437</v>
+      </c>
     </row>
     <row r="10" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A10" s="3"/>
@@ -3538,6 +3594,9 @@
       </c>
       <c r="N10">
         <v>10</v>
+      </c>
+      <c r="X10">
+        <v>280</v>
       </c>
     </row>
     <row r="11" spans="1:34" x14ac:dyDescent="0.2">
@@ -4607,6 +4666,12 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="A34:A36"/>
+    <mergeCell ref="A25:A33"/>
+    <mergeCell ref="D2:G2"/>
+    <mergeCell ref="H2:J2"/>
+    <mergeCell ref="B31:B33"/>
+    <mergeCell ref="B34:B36"/>
     <mergeCell ref="K2:M2"/>
     <mergeCell ref="A4:A15"/>
     <mergeCell ref="B22:B24"/>
@@ -4619,12 +4684,6 @@
     <mergeCell ref="B16:B18"/>
     <mergeCell ref="B19:B21"/>
     <mergeCell ref="A16:A24"/>
-    <mergeCell ref="A34:A36"/>
-    <mergeCell ref="A25:A33"/>
-    <mergeCell ref="D2:G2"/>
-    <mergeCell ref="H2:J2"/>
-    <mergeCell ref="B31:B33"/>
-    <mergeCell ref="B34:B36"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/CourseCardSystem/CourseCardsSystem.xlsx
+++ b/CourseCardSystem/CourseCardsSystem.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yanxin/Gamedev_Tools/CourseCardSystem/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71901311-2B32-4144-9006-116FD8F10154}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01C17618-64A8-3E48-B64D-A445194D7428}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="780" windowWidth="30240" windowHeight="17360" xr2:uid="{9D17990C-67C1-074B-AB22-A671F8561E26}"/>
+    <workbookView xWindow="-2840" yWindow="-21100" windowWidth="38400" windowHeight="21100" activeTab="5" xr2:uid="{9D17990C-67C1-074B-AB22-A671F8561E26}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="66">
   <si>
     <t>Birde</t>
   </si>
@@ -177,6 +177,69 @@
   </si>
   <si>
     <t>区间权重</t>
+  </si>
+  <si>
+    <t>Chapter</t>
+  </si>
+  <si>
+    <t>level</t>
+  </si>
+  <si>
+    <t>持续天数</t>
+  </si>
+  <si>
+    <t>x天开启pvp</t>
+  </si>
+  <si>
+    <t>pve持续</t>
+  </si>
+  <si>
+    <t>pvp持续</t>
+  </si>
+  <si>
+    <t>关卡</t>
+  </si>
+  <si>
+    <t>橙1-1</t>
+  </si>
+  <si>
+    <t>橙2-1</t>
+  </si>
+  <si>
+    <t>橙1-2</t>
+  </si>
+  <si>
+    <t>橙2-2</t>
+  </si>
+  <si>
+    <t>紫1-1</t>
+  </si>
+  <si>
+    <t>Helm9</t>
+  </si>
+  <si>
+    <t>Helm10</t>
+  </si>
+  <si>
+    <t>Helm11</t>
+  </si>
+  <si>
+    <t>Helm12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Eagle </t>
+  </si>
+  <si>
+    <t>满星</t>
+  </si>
+  <si>
+    <t>⭐️Birde</t>
+  </si>
+  <si>
+    <t>⭐️Eagle</t>
+  </si>
+  <si>
+    <t>⭐️Albatross</t>
   </si>
 </sst>
 </file>
@@ -2902,7 +2965,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4BE2B76B-281E-8E47-AF7A-D4E6247A3AFE}">
   <dimension ref="A1:AH36"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" workbookViewId="0">
+    <sheetView topLeftCell="A5" zoomScale="115" workbookViewId="0">
       <selection activeCell="AB12" sqref="AB12"/>
     </sheetView>
   </sheetViews>
@@ -4666,12 +4729,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="A34:A36"/>
-    <mergeCell ref="A25:A33"/>
-    <mergeCell ref="D2:G2"/>
-    <mergeCell ref="H2:J2"/>
-    <mergeCell ref="B31:B33"/>
-    <mergeCell ref="B34:B36"/>
     <mergeCell ref="K2:M2"/>
     <mergeCell ref="A4:A15"/>
     <mergeCell ref="B22:B24"/>
@@ -4684,6 +4741,12 @@
     <mergeCell ref="B16:B18"/>
     <mergeCell ref="B19:B21"/>
     <mergeCell ref="A16:A24"/>
+    <mergeCell ref="A34:A36"/>
+    <mergeCell ref="A25:A33"/>
+    <mergeCell ref="D2:G2"/>
+    <mergeCell ref="H2:J2"/>
+    <mergeCell ref="B31:B33"/>
+    <mergeCell ref="B34:B36"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4781,14 +4844,125 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1CEA0398-C01F-B749-8AF1-299DA107806D}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:N8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L17" sqref="L17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <cols>
+    <col min="3" max="6" width="18.6640625" customWidth="1"/>
+    <col min="7" max="7" width="17.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B1">
+        <v>10</v>
+      </c>
+      <c r="G1" t="s">
+        <v>48</v>
+      </c>
+      <c r="H1">
+        <v>6</v>
+      </c>
+      <c r="J1" t="s">
+        <v>49</v>
+      </c>
+      <c r="K1">
+        <f>B1</f>
+        <v>10</v>
+      </c>
+      <c r="M1" t="s">
+        <v>50</v>
+      </c>
+      <c r="N1">
+        <f>B1-H1+1</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C3" t="s">
+        <v>51</v>
+      </c>
+      <c r="D3" t="s">
+        <v>63</v>
+      </c>
+      <c r="E3" t="s">
+        <v>64</v>
+      </c>
+      <c r="F3" t="s">
+        <v>65</v>
+      </c>
+      <c r="G3" t="s">
+        <v>62</v>
+      </c>
+      <c r="H3" t="s">
+        <v>57</v>
+      </c>
+      <c r="I3" t="s">
+        <v>58</v>
+      </c>
+      <c r="J3" t="s">
+        <v>59</v>
+      </c>
+      <c r="K3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4" t="s">
+        <v>52</v>
+      </c>
+      <c r="H4" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B5">
+        <v>2</v>
+      </c>
+      <c r="C5" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B6">
+        <v>3</v>
+      </c>
+      <c r="C6" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B7">
+        <v>4</v>
+      </c>
+      <c r="C7" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B8">
+        <v>5</v>
+      </c>
+      <c r="C8" t="s">
+        <v>56</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>

--- a/CourseCardSystem/CourseCardsSystem.xlsx
+++ b/CourseCardSystem/CourseCardsSystem.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yanxin/Gamedev_Tools/CourseCardSystem/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01C17618-64A8-3E48-B64D-A445194D7428}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F21184EB-8335-FA42-8E5E-76ABDCF7DF00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-2840" yWindow="-21100" windowWidth="38400" windowHeight="21100" activeTab="5" xr2:uid="{9D17990C-67C1-074B-AB22-A671F8561E26}"/>
   </bookViews>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="63">
   <si>
     <t>Birde</t>
   </si>
@@ -215,24 +215,6 @@
     <t>紫1-1</t>
   </si>
   <si>
-    <t>Helm9</t>
-  </si>
-  <si>
-    <t>Helm10</t>
-  </si>
-  <si>
-    <t>Helm11</t>
-  </si>
-  <si>
-    <t>Helm12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Eagle </t>
-  </si>
-  <si>
-    <t>满星</t>
-  </si>
-  <si>
     <t>⭐️Birde</t>
   </si>
   <si>
@@ -240,6 +222,15 @@
   </si>
   <si>
     <t>⭐️Albatross</t>
+  </si>
+  <si>
+    <t>1,2</t>
+  </si>
+  <si>
+    <t>3,4</t>
+  </si>
+  <si>
+    <t>5,6</t>
   </si>
 </sst>
 </file>
@@ -296,7 +287,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
@@ -306,6 +297,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -4847,7 +4839,7 @@
   <dimension ref="A1:N8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="M16" sqref="M16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4895,28 +4887,13 @@
         <v>51</v>
       </c>
       <c r="D3" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="E3" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="F3" t="s">
-        <v>65</v>
-      </c>
-      <c r="G3" t="s">
-        <v>62</v>
-      </c>
-      <c r="H3" t="s">
-        <v>57</v>
-      </c>
-      <c r="I3" t="s">
-        <v>58</v>
-      </c>
-      <c r="J3" t="s">
         <v>59</v>
-      </c>
-      <c r="K3" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.2">
@@ -4926,8 +4903,14 @@
       <c r="C4" t="s">
         <v>52</v>
       </c>
-      <c r="H4" t="s">
+      <c r="D4" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="E4" t="s">
         <v>61</v>
+      </c>
+      <c r="F4" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.2">
